--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209890.561920644</v>
+        <v>-212354.6253643487</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>154.5482754987673</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>20.69373624728607</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>193.902604912174</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02644405005584</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>133.2099892451615</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>83.54118898789486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.82728187716285</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.32652654394603</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>201.6086852141641</v>
       </c>
       <c r="C8" t="n">
-        <v>298.7307299422349</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>268.7100143287864</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>133.8107367464747</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1658,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>219.8787494883747</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>96.3649446717877</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.85274231757755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>161.5187058058178</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>46.13809394730832</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>209.1156873304392</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>88.92406475355295</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2044.207458949104</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1675.244942008693</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.979243401942</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>931.1909908036978</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>520.2050860140903</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3194.412389250117</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3194.412389250117</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3194.412389250117</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3194.412389250117</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2820.946630989038</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2430.807299013226</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1731.433331005489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1476.748842799602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1187.331672762641</v>
+        <v>1371.459627555448</v>
       </c>
       <c r="X4" t="n">
-        <v>959.3421218646239</v>
+        <v>1143.470076657431</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.154071768027</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.154071768027</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>243.064559884797</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,13 +4577,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2340.359002069041</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1966.893243807961</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.753911832149</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.6375233676413</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C7" t="n">
-        <v>680.6375233676413</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>530.5208839553055</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>382.6077903729124</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>382.6077903729124</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4756,19 +4756,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1448.865759046516</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1159.448589009555</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676413</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.6375233676413</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796417</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796417</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>920.3970519373115</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>692.4075010392942</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>692.4075010392942</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,13 +5130,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,10 +5367,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.407037300152</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.722549094265</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159287</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>358.3510902843926</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>191.1549909992726</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,7 +5835,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>398.6787020904383</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,7 +6315,7 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>852.3571656803509</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>702.2405262680152</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>554.3274326856221</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.4374851877117</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>84.78346173586677</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>183.2242338923341</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>66.30572490086942</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>43.92976817443619</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.7319110345172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>127.2568112467069</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>4.005432486451042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.289762996849078</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.60007353871589</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028983</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837521</v>
@@ -26341,19 +26341,19 @@
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39868.27766558513</v>
+        <v>39868.27766558521</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,13 +26430,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179353</v>
@@ -26445,19 +26445,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201825.997351673</v>
+        <v>-1202047.128665647</v>
       </c>
       <c r="C6" t="n">
-        <v>109602.656114568</v>
+        <v>109602.6561145681</v>
       </c>
       <c r="D6" t="n">
         <v>109602.656114568</v>
       </c>
       <c r="E6" t="n">
-        <v>-135022.0489993035</v>
+        <v>-135056.7869247393</v>
       </c>
       <c r="F6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826158</v>
       </c>
       <c r="G6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.6748826158</v>
       </c>
       <c r="H6" t="n">
-        <v>190390.4128080517</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="I6" t="n">
-        <v>190390.4128080514</v>
+        <v>190355.6748826157</v>
       </c>
       <c r="J6" t="n">
-        <v>-27140.7895892259</v>
+        <v>-27175.52751466168</v>
       </c>
       <c r="K6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="L6" t="n">
-        <v>190390.4128080517</v>
+        <v>190355.6748826158</v>
       </c>
       <c r="M6" t="n">
-        <v>105335.3848725397</v>
+        <v>105300.646947104</v>
       </c>
       <c r="N6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.674882616</v>
       </c>
       <c r="O6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.674882616</v>
       </c>
       <c r="P6" t="n">
         <v>166140.9383366719</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>297.9503799276138</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>256.3734501546861</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>92.30923329343892</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4965542865352</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>277.7117364082919</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>265.6997797295181</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.19852638186538</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.811116779882</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>181.1251564493165</v>
       </c>
       <c r="C8" t="n">
-        <v>66.54216182877263</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>17.81298400780463</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33199,10 +33199,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36358,13 +36358,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,10 +36847,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
